--- a/TV5 Documents/SONIA corrections.xlsx
+++ b/TV5 Documents/SONIA corrections.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>REQT-001</t>
   </si>
@@ -125,6 +125,30 @@
   </si>
   <si>
     <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>trisha</t>
+  </si>
+  <si>
+    <t>dk</t>
+  </si>
+  <si>
+    <t>"database validation" - expound</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>update no. of requirements</t>
+  </si>
+  <si>
+    <t>constraints</t>
+  </si>
+  <si>
+    <t>non functional requirements</t>
+  </si>
+  <si>
+    <t>debt notifs, updated by blabla, change status to paid</t>
   </si>
 </sst>
 </file>
@@ -575,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E17"/>
+  <dimension ref="B4:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,6 +763,46 @@
       <c r="D17" s="8"/>
       <c r="E17" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
